--- a/app/server/static/components/examples/upload_seq2seq.xlsx
+++ b/app/server/static/components/examples/upload_seq2seq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armanrahman/doccano-1/app/server/static/components/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e321843\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CEFA6B-93BE-EC4B-9086-12776B090D7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5ACB10-502B-48BC-8073-2A94C1D1F60A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="1770" windowWidth="22125" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="upload_seq2seq" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>text</t>
   </si>
@@ -29,28 +29,22 @@
     <t>label</t>
   </si>
   <si>
-    <t>Hello!</t>
+    <t>  </t>
   </si>
   <si>
-    <t>Good morning.</t>
+    <t>Web Applications</t>
   </si>
   <si>
-    <t>See you.</t>
+    <t>Data algorithms.</t>
   </si>
   <si>
-    <t>こんにちは！</t>
+    <t>Development staging.</t>
   </si>
   <si>
-    <t>おはようございます。</t>
+    <t>Software Engineering</t>
   </si>
   <si>
-    <t>さようなら。</t>
-  </si>
-  <si>
-    <t>Bonjour</t>
-  </si>
-  <si>
-    <t>à plus</t>
+    <t>Data Science &amp; AI</t>
   </si>
 </sst>
 </file>
@@ -893,13 +887,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,25 +899,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -938,19 +930,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C75C3E3-C249-F343-A744-CD8F39464F30}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -958,31 +950,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>